--- a/Graphs/RichnessEstimates/Bee Numbers by Site (123).xlsx
+++ b/Graphs/RichnessEstimates/Bee Numbers by Site (123).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{8F17794E-04F0-4CC0-A47D-1F115C40CF4C}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{8F17794E-04F0-4CC0-A47D-1F115C40CF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Site</t>
   </si>
@@ -187,13 +187,19 @@
   </si>
   <si>
     <t>16 (0.36)</t>
+  </si>
+  <si>
+    <t>% Species Undetected</t>
+  </si>
+  <si>
+    <t>Inverse Simpson's Diversity Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +208,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -233,7 +246,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -550,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5A8F0-BDE8-4228-A48A-A830915EF644}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -561,14 +574,18 @@
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.88671875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,8 +616,14 @@
       <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -633,8 +656,15 @@
         <f>G2+H2</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="1">
+        <f>C2/G2</f>
+        <v>0.70454545454545459</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -667,8 +697,15 @@
         <f t="shared" ref="J3:J12" si="1">G3+H3</f>
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K12" si="2">C3/G3</f>
+        <v>0.76056338028169013</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -701,8 +738,15 @@
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -735,8 +779,15 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74137931034482762</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -769,8 +820,15 @@
         <f t="shared" si="1"/>
         <v>214</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33774834437086093</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -803,8 +861,15 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -837,8 +902,15 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.69411764705882351</v>
+      </c>
+      <c r="L8" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -871,8 +943,15 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75806451612903225</v>
+      </c>
+      <c r="L9" s="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -905,8 +984,15 @@
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61702127659574468</v>
+      </c>
+      <c r="L10" s="1">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -939,8 +1025,15 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7384615384615385</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -972,6 +1065,13 @@
       <c r="J12" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74576271186440679</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/RichnessEstimates/Bee Numbers by Site (123).xlsx
+++ b/Graphs/RichnessEstimates/Bee Numbers by Site (123).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{8F17794E-04F0-4CC0-A47D-1F115C40CF4C}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{8F17794E-04F0-4CC0-A47D-1F115C40CF4C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="By Name" sheetId="1" r:id="rId1"/>
+    <sheet name="By Number" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>Site</t>
   </si>
@@ -193,13 +194,32 @@
   </si>
   <si>
     <t>Inverse Simpson's Diversity Index</t>
+  </si>
+  <si>
+    <t>Chao1 Bee Species 
+(95% Confidence Interval)</t>
+  </si>
+  <si>
+    <t>No. Blooming Plant Species (Native/Weed)</t>
+  </si>
+  <si>
+    <t>Avg. Blooming Plant Coverage (%)</t>
+  </si>
+  <si>
+    <t>Site Name</t>
+  </si>
+  <si>
+    <t>Site No.</t>
+  </si>
+  <si>
+    <t>1 (0/1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +236,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -241,12 +301,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -565,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5A8F0-BDE8-4228-A48A-A830915EF644}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L12"/>
     </sheetView>
   </sheetViews>
@@ -585,7 +677,7 @@
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1078,4 +1170,447 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DE1794-21FC-4378-A565-A672F5A8E88C}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="47.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="47.109375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>557</v>
+      </c>
+      <c r="F2" s="3">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="8">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="E3" s="3">
+        <v>238</v>
+      </c>
+      <c r="F3" s="3">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="8">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3.14</v>
+      </c>
+      <c r="E4" s="3">
+        <v>514</v>
+      </c>
+      <c r="F4" s="3">
+        <v>48</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="8">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>9</v>
+      </c>
+      <c r="D5" s="12">
+        <v>9.83</v>
+      </c>
+      <c r="E5" s="3">
+        <v>575</v>
+      </c>
+      <c r="F5" s="3">
+        <v>78</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="8">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>13</v>
+      </c>
+      <c r="D6" s="12">
+        <v>7.05</v>
+      </c>
+      <c r="E6" s="3">
+        <v>482</v>
+      </c>
+      <c r="F6" s="3">
+        <v>43</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="8">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3.82</v>
+      </c>
+      <c r="E7" s="3">
+        <v>659</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="8">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>851</v>
+      </c>
+      <c r="F8" s="3">
+        <v>51</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="8">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12">
+        <v>13.84</v>
+      </c>
+      <c r="E9" s="3">
+        <v>860</v>
+      </c>
+      <c r="F9" s="3">
+        <v>59</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12">
+        <v>21.79</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1180</v>
+      </c>
+      <c r="F10" s="3">
+        <v>58</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="8">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>23</v>
+      </c>
+      <c r="D11" s="12">
+        <v>14.09</v>
+      </c>
+      <c r="E11" s="3">
+        <v>906</v>
+      </c>
+      <c r="F11" s="3">
+        <v>54</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="8">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7">
+        <v>23</v>
+      </c>
+      <c r="D12" s="12">
+        <v>23.65</v>
+      </c>
+      <c r="E12" s="3">
+        <v>594</v>
+      </c>
+      <c r="F12" s="3">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="8">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I36:J36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Graphs/RichnessEstimates/Bee Numbers by Site (123).xlsx
+++ b/Graphs/RichnessEstimates/Bee Numbers by Site (123).xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morga\Documents\ISU\Project\mmackert\Graphs\RichnessEstimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2EE580-D97C-4467-9565-A9D5208BC1A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{8F17794E-04F0-4CC0-A47D-1F115C40CF4C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{8F17794E-04F0-4CC0-A47D-1F115C40CF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="By Name" sheetId="1" r:id="rId1"/>
     <sheet name="By Number" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>Site</t>
   </si>
@@ -213,6 +214,33 @@
   </si>
   <si>
     <t>1 (0/1)</t>
+  </si>
+  <si>
+    <t>8 (1/7)</t>
+  </si>
+  <si>
+    <t>13 (10/3)</t>
+  </si>
+  <si>
+    <t>9 (3/6)</t>
+  </si>
+  <si>
+    <t>15 (10/5)</t>
+  </si>
+  <si>
+    <t>16 (9/7)</t>
+  </si>
+  <si>
+    <t>16 (8/8)</t>
+  </si>
+  <si>
+    <t>18 (8/10)</t>
+  </si>
+  <si>
+    <t>23 (16/7)</t>
+  </si>
+  <si>
+    <t>23 (14/9)</t>
   </si>
 </sst>
 </file>
@@ -325,9 +353,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -340,6 +365,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1176,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DE1794-21FC-4378-A565-A672F5A8E88C}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1185,11 +1213,11 @@
     <col min="1" max="1" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="47.109375" style="6"/>
@@ -1205,7 +1233,7 @@
       <c r="C1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1237,7 +1265,7 @@
       <c r="C2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>0.14000000000000001</v>
       </c>
       <c r="E2" s="3">
@@ -1266,10 +1294,10 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="C3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="11">
         <v>0.22</v>
       </c>
       <c r="E3" s="3">
@@ -1298,10 +1326,10 @@
       <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="11">
         <v>3.14</v>
       </c>
       <c r="E4" s="3">
@@ -1330,10 +1358,10 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
-        <v>9</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="11">
         <v>9.83</v>
       </c>
       <c r="E5" s="3">
@@ -1362,10 +1390,10 @@
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="7">
-        <v>13</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="11">
         <v>7.05</v>
       </c>
       <c r="E6" s="3">
@@ -1394,10 +1422,10 @@
       <c r="B7" s="3">
         <v>11</v>
       </c>
-      <c r="C7" s="7">
-        <v>15</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="11">
         <v>3.82</v>
       </c>
       <c r="E7" s="3">
@@ -1426,10 +1454,10 @@
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
-        <v>16</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="11">
         <v>7</v>
       </c>
       <c r="E8" s="3">
@@ -1458,10 +1486,10 @@
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
-        <v>16</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="11">
         <v>13.84</v>
       </c>
       <c r="E9" s="3">
@@ -1490,10 +1518,10 @@
       <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="7">
-        <v>18</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="11">
         <v>21.79</v>
       </c>
       <c r="E10" s="3">
@@ -1522,10 +1550,10 @@
       <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="7">
-        <v>23</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="C11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="11">
         <v>14.09</v>
       </c>
       <c r="E11" s="3">
@@ -1554,10 +1582,10 @@
       <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="7">
-        <v>23</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="C12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="11">
         <v>23.65</v>
       </c>
       <c r="E12" s="3">
@@ -1583,7 +1611,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1595,17 +1623,17 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="14"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
